--- a/data/trans_orig/P33b_R3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R3-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3EF6338-D7EC-4F48-84F6-7E3A42BC1F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12D1F041-4B13-4FB1-B833-B6E8494F2429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6696CF44-7833-4086-BAD4-E2056702A88F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{69BBB88E-5E6F-4A0B-B5C1-3C6C8E1B2B99}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="177">
   <si>
     <t>Población que se despierta demasiado temprano (de forma involuntaria) en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>5,26%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
   </si>
   <si>
     <t>9,86%</t>
   </si>
   <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>94,74%</t>
   </si>
   <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
   </si>
   <si>
     <t>90,14%</t>
   </si>
   <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
   </si>
   <si>
     <t>92,39%</t>
   </si>
   <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>10,79%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
   </si>
   <si>
     <t>14,96%</t>
   </si>
   <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
   </si>
   <si>
     <t>12,94%</t>
   </si>
   <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
   </si>
   <si>
     <t>89,21%</t>
   </si>
   <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
   </si>
   <si>
     <t>85,04%</t>
   </si>
   <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
   </si>
   <si>
     <t>87,06%</t>
   </si>
   <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,7 +194,7 @@
     <t>16,1%</t>
   </si>
   <si>
-    <t>12,51%</t>
+    <t>12,49%</t>
   </si>
   <si>
     <t>20,32%</t>
@@ -203,19 +203,19 @@
     <t>21,08%</t>
   </si>
   <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
   </si>
   <si>
     <t>18,78%</t>
   </si>
   <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
   </si>
   <si>
     <t>83,9%</t>
@@ -224,25 +224,25 @@
     <t>79,68%</t>
   </si>
   <si>
-    <t>87,49%</t>
+    <t>87,51%</t>
   </si>
   <si>
     <t>78,92%</t>
   </si>
   <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
   </si>
   <si>
     <t>81,22%</t>
   </si>
   <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,55 @@
     <t>18,25%</t>
   </si>
   <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
   </si>
   <si>
     <t>20,58%</t>
   </si>
   <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
   </si>
   <si>
     <t>19,58%</t>
   </si>
   <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
   </si>
   <si>
     <t>81,75%</t>
   </si>
   <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
   </si>
   <si>
     <t>79,42%</t>
   </si>
   <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
   </si>
   <si>
     <t>80,42%</t>
   </si>
   <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,49 +308,49 @@
     <t>8,64%</t>
   </si>
   <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
   </si>
   <si>
     <t>10,89%</t>
   </si>
   <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
   </si>
   <si>
     <t>91,36%</t>
   </si>
   <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
   </si>
   <si>
     <t>89,11%</t>
   </si>
   <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -359,55 +359,43 @@
     <t>16,97%</t>
   </si>
   <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
   </si>
   <si>
     <t>25,41%</t>
   </si>
   <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
+    <t>29,26%</t>
   </si>
   <si>
     <t>21,18%</t>
   </si>
   <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
+    <t>18,37%</t>
   </si>
   <si>
     <t>83,03%</t>
   </si>
   <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
   </si>
   <si>
     <t>74,59%</t>
   </si>
   <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
+    <t>70,74%</t>
   </si>
   <si>
     <t>78,82%</t>
   </si>
   <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
+    <t>81,63%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -416,55 +404,55 @@
     <t>18,31%</t>
   </si>
   <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
   </si>
   <si>
     <t>21,41%</t>
   </si>
   <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
   </si>
   <si>
     <t>20,05%</t>
   </si>
   <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
   </si>
   <si>
     <t>81,69%</t>
   </si>
   <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
   </si>
   <si>
     <t>78,59%</t>
   </si>
   <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
   </si>
   <si>
     <t>79,95%</t>
   </si>
   <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -473,109 +461,109 @@
     <t>20,39%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
   </si>
   <si>
     <t>31,55%</t>
   </si>
   <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
   </si>
   <si>
     <t>25,99%</t>
   </si>
   <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
   </si>
   <si>
     <t>79,61%</t>
   </si>
   <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
   </si>
   <si>
     <t>68,45%</t>
   </si>
   <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
   </si>
   <si>
     <t>74,01%</t>
   </si>
   <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
   </si>
   <si>
     <t>15,79%</t>
   </si>
   <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
   </si>
   <si>
     <t>21,48%</t>
   </si>
   <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
   </si>
   <si>
     <t>18,8%</t>
   </si>
   <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
   </si>
   <si>
     <t>84,21%</t>
   </si>
   <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
   </si>
   <si>
     <t>78,52%</t>
   </si>
   <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
   </si>
   <si>
     <t>81,2%</t>
   </si>
   <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBD955D-ED2B-492C-91DF-1FDCC67D498A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BFE0F4-5AB4-4AA7-BCD2-8E022D32E507}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1907,10 +1895,10 @@
         <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>211</v>
@@ -1919,13 +1907,13 @@
         <v>117067</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1928,13 @@
         <v>230181</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>318</v>
@@ -1955,13 +1943,13 @@
         <v>205597</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
         <v>620</v>
@@ -1970,13 +1958,13 @@
         <v>435778</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,7 +2020,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2044,13 +2032,13 @@
         <v>114742</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>260</v>
@@ -2059,13 +2047,13 @@
         <v>172183</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>378</v>
@@ -2074,13 +2062,13 @@
         <v>286925</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,13 +2083,13 @@
         <v>511935</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>700</v>
@@ -2110,13 +2098,13 @@
         <v>632020</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>1180</v>
@@ -2125,13 +2113,13 @@
         <v>1143955</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,7 +2175,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2199,13 +2187,13 @@
         <v>175274</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>383</v>
@@ -2214,13 +2202,13 @@
         <v>273085</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>585</v>
@@ -2229,13 +2217,13 @@
         <v>448360</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,13 +2238,13 @@
         <v>684154</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>678</v>
@@ -2265,13 +2253,13 @@
         <v>592587</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>1238</v>
@@ -2280,13 +2268,13 @@
         <v>1276740</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,13 +2342,13 @@
         <v>534323</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>1282</v>
@@ -2369,13 +2357,13 @@
         <v>817093</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>1877</v>
@@ -2384,13 +2372,13 @@
         <v>1351416</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2393,13 @@
         <v>2848855</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>4080</v>
@@ -2420,13 +2408,13 @@
         <v>2987709</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>6859</v>
@@ -2435,13 +2423,13 @@
         <v>5836564</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,7 +2485,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R3-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12D1F041-4B13-4FB1-B833-B6E8494F2429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6960EE6B-ABDF-4618-86AA-029B8C84A45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{69BBB88E-5E6F-4A0B-B5C1-3C6C8E1B2B99}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2E0FF3E4-7D82-41FC-87E2-2FFA877BAB16}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -978,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BFE0F4-5AB4-4AA7-BCD2-8E022D32E507}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16025F79-E1C5-48CA-B61C-86CCB9BF62FF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33b_R3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R3-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6960EE6B-ABDF-4618-86AA-029B8C84A45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAA94172-62DE-439A-85C4-AB4E55A60924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2E0FF3E4-7D82-41FC-87E2-2FFA877BAB16}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F8D03360-5BBC-4457-ACEC-4ACCDED0A71A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Población que se despierta demasiado temprano (de forma involuntaria) en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>5,26%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
   </si>
   <si>
     <t>9,86%</t>
   </si>
   <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>94,74%</t>
   </si>
   <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
   </si>
   <si>
     <t>90,14%</t>
   </si>
   <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
   </si>
   <si>
     <t>92,39%</t>
   </si>
   <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>10,79%</t>
   </si>
   <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
   </si>
   <si>
     <t>14,96%</t>
   </si>
   <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
   </si>
   <si>
     <t>12,94%</t>
   </si>
   <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
   </si>
   <si>
     <t>89,21%</t>
   </si>
   <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
   </si>
   <si>
     <t>85,04%</t>
   </si>
   <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
   </si>
   <si>
     <t>87,06%</t>
   </si>
   <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,7 +194,7 @@
     <t>16,1%</t>
   </si>
   <si>
-    <t>12,49%</t>
+    <t>12,51%</t>
   </si>
   <si>
     <t>20,32%</t>
@@ -203,19 +203,19 @@
     <t>21,08%</t>
   </si>
   <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
   </si>
   <si>
     <t>18,78%</t>
   </si>
   <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
   </si>
   <si>
     <t>83,9%</t>
@@ -224,25 +224,25 @@
     <t>79,68%</t>
   </si>
   <si>
-    <t>87,51%</t>
+    <t>87,49%</t>
   </si>
   <si>
     <t>78,92%</t>
   </si>
   <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
   </si>
   <si>
     <t>81,22%</t>
   </si>
   <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,55 @@
     <t>18,25%</t>
   </si>
   <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
   </si>
   <si>
     <t>20,58%</t>
   </si>
   <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
   </si>
   <si>
     <t>19,58%</t>
   </si>
   <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
   </si>
   <si>
     <t>81,75%</t>
   </si>
   <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
   </si>
   <si>
     <t>79,42%</t>
   </si>
   <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
   </si>
   <si>
     <t>80,42%</t>
   </si>
   <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,49 +308,49 @@
     <t>8,64%</t>
   </si>
   <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
   </si>
   <si>
     <t>10,89%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
   </si>
   <si>
     <t>91,36%</t>
   </si>
   <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
   </si>
   <si>
     <t>89,11%</t>
   </si>
   <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -359,43 +359,55 @@
     <t>16,97%</t>
   </si>
   <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
   </si>
   <si>
     <t>25,41%</t>
   </si>
   <si>
-    <t>29,26%</t>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
   </si>
   <si>
     <t>21,18%</t>
   </si>
   <si>
-    <t>18,37%</t>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
   </si>
   <si>
     <t>83,03%</t>
   </si>
   <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
   </si>
   <si>
     <t>74,59%</t>
   </si>
   <si>
-    <t>70,74%</t>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
   </si>
   <si>
     <t>78,82%</t>
   </si>
   <si>
-    <t>81,63%</t>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -404,55 +416,55 @@
     <t>18,31%</t>
   </si>
   <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
   </si>
   <si>
     <t>21,41%</t>
   </si>
   <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
   </si>
   <si>
     <t>20,05%</t>
   </si>
   <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
   </si>
   <si>
     <t>81,69%</t>
   </si>
   <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
   </si>
   <si>
     <t>78,59%</t>
   </si>
   <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
   </si>
   <si>
     <t>79,95%</t>
   </si>
   <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -461,109 +473,109 @@
     <t>20,39%</t>
   </si>
   <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
   </si>
   <si>
     <t>31,55%</t>
   </si>
   <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
   </si>
   <si>
     <t>25,99%</t>
   </si>
   <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
   </si>
   <si>
     <t>79,61%</t>
   </si>
   <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
   </si>
   <si>
     <t>68,45%</t>
   </si>
   <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
   </si>
   <si>
     <t>74,01%</t>
   </si>
   <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
   </si>
   <si>
     <t>15,79%</t>
   </si>
   <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
   </si>
   <si>
     <t>21,48%</t>
   </si>
   <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
   </si>
   <si>
     <t>18,8%</t>
   </si>
   <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
   </si>
   <si>
     <t>84,21%</t>
   </si>
   <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
   </si>
   <si>
     <t>78,52%</t>
   </si>
   <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
   </si>
   <si>
     <t>81,2%</t>
   </si>
   <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -978,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16025F79-E1C5-48CA-B61C-86CCB9BF62FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC1635F-D0A2-4134-B538-78B72A09DA36}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1895,10 +1907,10 @@
         <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>211</v>
@@ -1907,13 +1919,13 @@
         <v>117067</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,13 +1940,13 @@
         <v>230181</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>318</v>
@@ -1943,13 +1955,13 @@
         <v>205597</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>620</v>
@@ -1958,13 +1970,13 @@
         <v>435778</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,7 +2032,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2032,13 +2044,13 @@
         <v>114742</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>260</v>
@@ -2047,13 +2059,13 @@
         <v>172183</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>378</v>
@@ -2062,13 +2074,13 @@
         <v>286925</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,13 +2095,13 @@
         <v>511935</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>700</v>
@@ -2098,13 +2110,13 @@
         <v>632020</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>1180</v>
@@ -2113,13 +2125,13 @@
         <v>1143955</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,7 +2187,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2187,13 +2199,13 @@
         <v>175274</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>383</v>
@@ -2202,13 +2214,13 @@
         <v>273085</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>585</v>
@@ -2217,13 +2229,13 @@
         <v>448360</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,13 +2250,13 @@
         <v>684154</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>678</v>
@@ -2253,13 +2265,13 @@
         <v>592587</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1238</v>
@@ -2268,13 +2280,13 @@
         <v>1276740</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,13 +2354,13 @@
         <v>534323</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>1282</v>
@@ -2357,13 +2369,13 @@
         <v>817093</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>1877</v>
@@ -2372,13 +2384,13 @@
         <v>1351416</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,13 +2405,13 @@
         <v>2848855</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>4080</v>
@@ -2408,13 +2420,13 @@
         <v>2987709</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>6859</v>
@@ -2423,13 +2435,13 @@
         <v>5836564</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,7 +2497,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R3-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAA94172-62DE-439A-85C4-AB4E55A60924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5101737-1350-4C15-8D8D-36D2A0A09FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F8D03360-5BBC-4457-ACEC-4ACCDED0A71A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C51C6E9D-38E7-4547-8EEE-9330BDB184EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
   <si>
     <t>Población que se despierta demasiado temprano (de forma involuntaria) en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,220 +134,226 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
   </si>
   <si>
     <t>Huelva</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
   </si>
   <si>
     <t>7,91%</t>
   </si>
   <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
   </si>
   <si>
     <t>92,09%</t>
@@ -356,226 +362,214 @@
     <t>Jaen</t>
   </si>
   <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
   </si>
   <si>
     <t>25,41%</t>
   </si>
   <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
   </si>
   <si>
     <t>74,59%</t>
   </si>
   <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC1635F-D0A2-4134-B538-78B72A09DA36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E58C5FB-E10F-45CD-B28E-24BFA407D264}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1111,7 +1105,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>13696</v>
+        <v>15624</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1126,7 +1120,7 @@
         <v>57</v>
       </c>
       <c r="I4" s="7">
-        <v>26771</v>
+        <v>27813</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1141,7 +1135,7 @@
         <v>73</v>
       </c>
       <c r="N4" s="7">
-        <v>40467</v>
+        <v>43438</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1162,7 +1156,7 @@
         <v>315</v>
       </c>
       <c r="D5" s="7">
-        <v>246602</v>
+        <v>295819</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1177,7 +1171,7 @@
         <v>481</v>
       </c>
       <c r="I5" s="7">
-        <v>244632</v>
+        <v>261822</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1192,7 +1186,7 @@
         <v>796</v>
       </c>
       <c r="N5" s="7">
-        <v>491233</v>
+        <v>557639</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1213,7 +1207,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1228,7 +1222,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1243,7 +1237,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1266,7 +1260,7 @@
         <v>43</v>
       </c>
       <c r="D7" s="7">
-        <v>56032</v>
+        <v>55201</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1281,7 +1275,7 @@
         <v>117</v>
       </c>
       <c r="I7" s="7">
-        <v>82938</v>
+        <v>76483</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1296,7 +1290,7 @@
         <v>160</v>
       </c>
       <c r="N7" s="7">
-        <v>138969</v>
+        <v>131684</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1317,7 +1311,7 @@
         <v>339</v>
       </c>
       <c r="D8" s="7">
-        <v>463265</v>
+        <v>463189</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1332,7 +1326,7 @@
         <v>600</v>
       </c>
       <c r="I8" s="7">
-        <v>471628</v>
+        <v>438486</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1347,7 +1341,7 @@
         <v>939</v>
       </c>
       <c r="N8" s="7">
-        <v>934895</v>
+        <v>901675</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1368,7 +1362,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1383,7 +1377,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1398,7 +1392,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1421,7 +1415,7 @@
         <v>64</v>
       </c>
       <c r="D10" s="7">
-        <v>51736</v>
+        <v>49919</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1436,7 +1430,7 @@
         <v>127</v>
       </c>
       <c r="I10" s="7">
-        <v>78703</v>
+        <v>73136</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1451,7 +1445,7 @@
         <v>191</v>
       </c>
       <c r="N10" s="7">
-        <v>130438</v>
+        <v>123054</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1472,7 +1466,7 @@
         <v>295</v>
       </c>
       <c r="D11" s="7">
-        <v>269532</v>
+        <v>265162</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1487,7 +1481,7 @@
         <v>409</v>
       </c>
       <c r="I11" s="7">
-        <v>294581</v>
+        <v>275992</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1502,7 +1496,7 @@
         <v>704</v>
       </c>
       <c r="N11" s="7">
-        <v>564114</v>
+        <v>541155</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1523,7 +1517,7 @@
         <v>359</v>
       </c>
       <c r="D12" s="7">
-        <v>321268</v>
+        <v>315081</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1538,7 +1532,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1553,7 +1547,7 @@
         <v>895</v>
       </c>
       <c r="N12" s="7">
-        <v>694552</v>
+        <v>664209</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1576,7 +1570,7 @@
         <v>56</v>
       </c>
       <c r="D13" s="7">
-        <v>58795</v>
+        <v>56845</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1591,7 +1585,7 @@
         <v>135</v>
       </c>
       <c r="I13" s="7">
-        <v>88178</v>
+        <v>80859</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1606,7 +1600,7 @@
         <v>191</v>
       </c>
       <c r="N13" s="7">
-        <v>146973</v>
+        <v>137703</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1627,7 +1621,7 @@
         <v>236</v>
       </c>
       <c r="D14" s="7">
-        <v>263445</v>
+        <v>255712</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1642,7 +1636,7 @@
         <v>464</v>
       </c>
       <c r="I14" s="7">
-        <v>340378</v>
+        <v>394859</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1657,7 +1651,7 @@
         <v>700</v>
       </c>
       <c r="N14" s="7">
-        <v>603823</v>
+        <v>650571</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1678,7 +1672,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1693,7 +1687,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1708,7 +1702,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1731,7 +1725,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="7">
-        <v>17007</v>
+        <v>15352</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1746,7 +1740,7 @@
         <v>61</v>
       </c>
       <c r="I16" s="7">
-        <v>25210</v>
+        <v>22894</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1761,16 +1755,16 @@
         <v>88</v>
       </c>
       <c r="N16" s="7">
-        <v>42217</v>
+        <v>38246</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1782,46 +1776,46 @@
         <v>252</v>
       </c>
       <c r="D17" s="7">
-        <v>179741</v>
+        <v>163390</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>430</v>
       </c>
       <c r="I17" s="7">
-        <v>206286</v>
+        <v>185380</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>682</v>
       </c>
       <c r="N17" s="7">
-        <v>386027</v>
+        <v>348770</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1833,7 +1827,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1848,7 +1842,7 @@
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1863,7 +1857,7 @@
         <v>770</v>
       </c>
       <c r="N18" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1877,7 +1871,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1886,46 +1880,46 @@
         <v>69</v>
       </c>
       <c r="D19" s="7">
-        <v>47042</v>
+        <v>44954</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>142</v>
       </c>
       <c r="I19" s="7">
-        <v>70025</v>
+        <v>65323</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>211</v>
       </c>
       <c r="N19" s="7">
-        <v>117067</v>
+        <v>110277</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,46 +1931,46 @@
         <v>302</v>
       </c>
       <c r="D20" s="7">
-        <v>230181</v>
+        <v>224682</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>318</v>
       </c>
       <c r="I20" s="7">
-        <v>205597</v>
+        <v>191733</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>620</v>
       </c>
       <c r="N20" s="7">
-        <v>435778</v>
+        <v>416415</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1988,7 +1982,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2003,7 +1997,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2018,7 +2012,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2032,7 +2026,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2041,46 +2035,46 @@
         <v>118</v>
       </c>
       <c r="D22" s="7">
-        <v>114742</v>
+        <v>112230</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>260</v>
       </c>
       <c r="I22" s="7">
-        <v>172183</v>
+        <v>159693</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>378</v>
       </c>
       <c r="N22" s="7">
-        <v>286925</v>
+        <v>271923</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,46 +2086,46 @@
         <v>480</v>
       </c>
       <c r="D23" s="7">
-        <v>511935</v>
+        <v>511020</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>700</v>
       </c>
       <c r="I23" s="7">
-        <v>632020</v>
+        <v>689572</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1180</v>
       </c>
       <c r="N23" s="7">
-        <v>1143955</v>
+        <v>1200591</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,7 +2137,7 @@
         <v>598</v>
       </c>
       <c r="D24" s="7">
-        <v>626677</v>
+        <v>623250</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2158,7 +2152,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2173,7 +2167,7 @@
         <v>1558</v>
       </c>
       <c r="N24" s="7">
-        <v>1430880</v>
+        <v>1472514</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2187,7 +2181,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2196,46 +2190,46 @@
         <v>202</v>
       </c>
       <c r="D25" s="7">
-        <v>175274</v>
+        <v>150206</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>383</v>
       </c>
       <c r="I25" s="7">
-        <v>273085</v>
+        <v>228297</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>585</v>
       </c>
       <c r="N25" s="7">
-        <v>448360</v>
+        <v>378502</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,46 +2241,46 @@
         <v>560</v>
       </c>
       <c r="D26" s="7">
-        <v>684154</v>
+        <v>778514</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>678</v>
       </c>
       <c r="I26" s="7">
-        <v>592587</v>
+        <v>487095</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1238</v>
       </c>
       <c r="N26" s="7">
-        <v>1276740</v>
+        <v>1265610</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,7 +2292,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2313,7 +2307,7 @@
         <v>1061</v>
       </c>
       <c r="I27" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2328,7 +2322,7 @@
         <v>1823</v>
       </c>
       <c r="N27" s="7">
-        <v>1725100</v>
+        <v>1644112</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2351,46 +2345,46 @@
         <v>595</v>
       </c>
       <c r="D28" s="7">
-        <v>534323</v>
+        <v>500330</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>1282</v>
       </c>
       <c r="I28" s="7">
-        <v>817093</v>
+        <v>734497</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M28" s="7">
         <v>1877</v>
       </c>
       <c r="N28" s="7">
-        <v>1351416</v>
+        <v>1234827</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,7 +2396,7 @@
         <v>2779</v>
       </c>
       <c r="D29" s="7">
-        <v>2848855</v>
+        <v>2957488</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>171</v>
@@ -2417,31 +2411,31 @@
         <v>4080</v>
       </c>
       <c r="I29" s="7">
-        <v>2987709</v>
+        <v>2924938</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>6859</v>
       </c>
       <c r="N29" s="7">
-        <v>5836564</v>
+        <v>5882426</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,7 +2447,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3383178</v>
+        <v>3457818</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2468,7 +2462,7 @@
         <v>5362</v>
       </c>
       <c r="I30" s="7">
-        <v>3804802</v>
+        <v>3659435</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2483,7 +2477,7 @@
         <v>8736</v>
       </c>
       <c r="N30" s="7">
-        <v>7187980</v>
+        <v>7117253</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2497,7 +2491,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
